--- a/data/trans_orig/Q5406-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5406-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{329D2D9F-59EE-42C6-BC16-8C13B844E4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D70B46B4-9593-44F3-9892-C906BFB8E6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D59368B7-ABD8-4F97-AB2A-5194D08624EC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{38DADCA4-CEB4-4D28-9E7D-C7F33ADACA08}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="352">
   <si>
     <t>Población según si es capaz de tomar medicación en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -86,897 +86,912 @@
     <t>2,36%</t>
   </si>
   <si>
-    <t>1,18%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>Con alguna ayuda</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de tomar medicación en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de tomar medicación en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
   </si>
   <si>
     <t>4,07%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
   </si>
   <si>
     <t>2,64%</t>
   </si>
   <si>
-    <t>Con alguna ayuda</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de tomar medicación en 2023 (Tasa respuesta: 31,22%)</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
   </si>
   <si>
     <t>0,64%</t>
   </si>
   <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
   </si>
   <si>
     <t>98,54%</t>
   </si>
   <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de tomar medicación en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de tomar medicación en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de tomar medicación en 2023 (Tasa respuesta: 31,22%)</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
     <t>0,6%</t>
   </si>
   <si>
@@ -989,22 +1004,22 @@
     <t>1,38%</t>
   </si>
   <si>
-    <t>4,51%</t>
+    <t>5,49%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
   </si>
   <si>
     <t>98,38%</t>
   </si>
   <si>
-    <t>95,22%</t>
+    <t>94,86%</t>
   </si>
   <si>
     <t>99,86%</t>
@@ -1013,70 +1028,73 @@
     <t>98,62%</t>
   </si>
   <si>
+    <t>94,51%</t>
+  </si>
+  <si>
     <t>98,48%</t>
   </si>
   <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
   </si>
   <si>
     <t>3,75%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
+    <t>5,64%</t>
   </si>
   <si>
     <t>95,61%</t>
   </si>
   <si>
-    <t>96,71%</t>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
   </si>
   <si>
     <t>91,69%</t>
   </si>
   <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
   </si>
   <si>
     <t>93,28%</t>
   </si>
   <si>
-    <t>94,65%</t>
+    <t>94,71%</t>
   </si>
 </sst>
 </file>
@@ -1488,7 +1506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94212AA6-2D40-4175-BF08-1E6C3FAC8FB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D17537-164F-4F33-8C8A-93446A3F3D24}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1699,13 +1717,13 @@
         <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>369</v>
@@ -1714,28 +1732,28 @@
         <v>345809</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>547939</v>
+        <v>547938</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>907</v>
@@ -1744,13 +1762,13 @@
         <v>893747</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1765,28 +1783,28 @@
         <v>373189</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>574</v>
       </c>
       <c r="I7" s="7">
-        <v>587750</v>
+        <v>587749</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>973</v>
@@ -1795,18 +1813,18 @@
         <v>960938</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1818,13 +1836,13 @@
         <v>1751</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -1833,13 +1851,13 @@
         <v>2055</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -1848,13 +1866,13 @@
         <v>3806</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1869,13 +1887,13 @@
         <v>2635</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -1884,13 +1902,13 @@
         <v>1124</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -1899,19 +1917,19 @@
         <v>3759</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>85</v>
@@ -1920,13 +1938,13 @@
         <v>83697</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>57</v>
@@ -1935,13 +1953,13 @@
         <v>59033</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>142</v>
@@ -1950,13 +1968,13 @@
         <v>142730</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1971,13 +1989,13 @@
         <v>88083</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>60</v>
@@ -1986,13 +2004,13 @@
         <v>62212</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>149</v>
@@ -2001,18 +2019,18 @@
         <v>150295</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2027,10 +2045,10 @@
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2042,10 +2060,10 @@
         <v>12</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2057,10 +2075,10 @@
         <v>12</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2078,10 +2096,10 @@
         <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2093,10 +2111,10 @@
         <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2108,16 +2126,16 @@
         <v>12</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>35</v>
@@ -2126,13 +2144,13 @@
         <v>41194</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
@@ -2141,13 +2159,13 @@
         <v>26881</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M14" s="7">
         <v>62</v>
@@ -2156,13 +2174,13 @@
         <v>68075</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2177,13 +2195,13 @@
         <v>41194</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>27</v>
@@ -2192,13 +2210,13 @@
         <v>26881</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>62</v>
@@ -2207,13 +2225,13 @@
         <v>68075</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2230,13 +2248,13 @@
         <v>3576</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -2248,10 +2266,10 @@
         <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -2260,13 +2278,13 @@
         <v>19523</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2281,13 +2299,13 @@
         <v>28190</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -2296,13 +2314,13 @@
         <v>27043</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M17" s="7">
         <v>55</v>
@@ -2311,19 +2329,19 @@
         <v>55233</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>489</v>
@@ -2332,13 +2350,13 @@
         <v>470700</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H18" s="7">
         <v>622</v>
@@ -2347,13 +2365,13 @@
         <v>633852</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M18" s="7">
         <v>1111</v>
@@ -2362,13 +2380,13 @@
         <v>1104552</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,13 +2401,13 @@
         <v>502466</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>661</v>
@@ -2398,13 +2416,13 @@
         <v>676842</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>1184</v>
@@ -2413,18 +2431,18 @@
         <v>1179308</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2443,7 +2461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C774748-DE8D-4421-AEDE-8C875EBD59D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075B3B7B-30D8-4706-9E2E-A260AA27C27E}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2460,7 +2478,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2567,13 +2585,13 @@
         <v>15847</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -2582,13 +2600,13 @@
         <v>28897</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M4" s="7">
         <v>40</v>
@@ -2597,13 +2615,13 @@
         <v>44743</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2618,13 +2636,13 @@
         <v>31708</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H5" s="7">
         <v>43</v>
@@ -2633,13 +2651,13 @@
         <v>46835</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M5" s="7">
         <v>70</v>
@@ -2648,19 +2666,19 @@
         <v>78543</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>337</v>
@@ -2669,13 +2687,13 @@
         <v>366843</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H6" s="7">
         <v>527</v>
@@ -2684,13 +2702,13 @@
         <v>558814</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M6" s="7">
         <v>864</v>
@@ -2699,13 +2717,13 @@
         <v>925656</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,13 +2738,13 @@
         <v>414398</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>596</v>
@@ -2735,13 +2753,13 @@
         <v>634545</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>974</v>
@@ -2750,18 +2768,18 @@
         <v>1048942</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2773,13 +2791,13 @@
         <v>992</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2788,13 +2806,13 @@
         <v>2424</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -2803,13 +2821,13 @@
         <v>3416</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2824,13 +2842,13 @@
         <v>5450</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -2839,13 +2857,13 @@
         <v>1100</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -2854,19 +2872,19 @@
         <v>6550</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>100</v>
@@ -2875,13 +2893,13 @@
         <v>112222</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H10" s="7">
         <v>74</v>
@@ -2890,13 +2908,13 @@
         <v>79550</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M10" s="7">
         <v>174</v>
@@ -2905,13 +2923,13 @@
         <v>191773</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,13 +2944,13 @@
         <v>118665</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>77</v>
@@ -2941,13 +2959,13 @@
         <v>83074</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>182</v>
@@ -2956,18 +2974,18 @@
         <v>201739</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2982,10 +3000,10 @@
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2997,10 +3015,10 @@
         <v>12</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3012,10 +3030,10 @@
         <v>12</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,10 +3051,10 @@
         <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3045,13 +3063,13 @@
         <v>1100</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -3060,19 +3078,19 @@
         <v>1100</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>21</v>
@@ -3081,13 +3099,13 @@
         <v>26575</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
@@ -3096,13 +3114,13 @@
         <v>21146</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M14" s="7">
         <v>38</v>
@@ -3111,13 +3129,13 @@
         <v>47721</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,13 +3150,13 @@
         <v>26575</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>18</v>
@@ -3147,13 +3165,13 @@
         <v>22246</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>39</v>
@@ -3162,13 +3180,13 @@
         <v>48821</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3203,13 @@
         <v>16839</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -3200,13 +3218,13 @@
         <v>31321</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M16" s="7">
         <v>43</v>
@@ -3215,13 +3233,13 @@
         <v>48159</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,13 +3254,13 @@
         <v>37159</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -3251,13 +3269,13 @@
         <v>49034</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M17" s="7">
         <v>76</v>
@@ -3266,19 +3284,19 @@
         <v>86192</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>458</v>
@@ -3287,13 +3305,13 @@
         <v>505640</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H18" s="7">
         <v>618</v>
@@ -3302,13 +3320,13 @@
         <v>659511</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M18" s="7">
         <v>1076</v>
@@ -3317,13 +3335,13 @@
         <v>1165150</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,13 +3356,13 @@
         <v>559637</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>691</v>
@@ -3353,13 +3371,13 @@
         <v>739865</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>1195</v>
@@ -3368,18 +3386,18 @@
         <v>1299502</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3398,7 +3416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C9A22C-F38D-4F68-9DD8-EC9105152080}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED5C535-DE3B-4D7F-B6E2-98689128217C}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3415,7 +3433,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3522,13 +3540,13 @@
         <v>5777</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -3537,13 +3555,13 @@
         <v>11791</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -3552,13 +3570,13 @@
         <v>17568</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,13 +3591,13 @@
         <v>18201</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H5" s="7">
         <v>27</v>
@@ -3588,13 +3606,13 @@
         <v>34500</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M5" s="7">
         <v>47</v>
@@ -3603,34 +3621,34 @@
         <v>52701</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>359</v>
       </c>
       <c r="D6" s="7">
-        <v>329924</v>
+        <v>329923</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="H6" s="7">
         <v>435</v>
@@ -3639,13 +3657,13 @@
         <v>508466</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M6" s="7">
         <v>794</v>
@@ -3654,13 +3672,13 @@
         <v>838389</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3672,16 +3690,16 @@
         <v>386</v>
       </c>
       <c r="D7" s="7">
-        <v>353902</v>
+        <v>353901</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>471</v>
@@ -3690,13 +3708,13 @@
         <v>554757</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>857</v>
@@ -3705,18 +3723,18 @@
         <v>908658</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3728,13 +3746,13 @@
         <v>836</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>213</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3743,13 +3761,13 @@
         <v>2093</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -3758,13 +3776,13 @@
         <v>2930</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,10 +3800,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -3794,13 +3812,13 @@
         <v>4671</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>214</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>215</v>
+        <v>29</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -3809,19 +3827,19 @@
         <v>4671</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>218</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>196</v>
@@ -3830,13 +3848,13 @@
         <v>191696</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H10" s="7">
         <v>153</v>
@@ -3845,13 +3863,13 @@
         <v>181310</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M10" s="7">
         <v>349</v>
@@ -3860,13 +3878,13 @@
         <v>373006</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,13 +3899,13 @@
         <v>192532</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>157</v>
@@ -3896,13 +3914,13 @@
         <v>188074</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>354</v>
@@ -3911,18 +3929,18 @@
         <v>380606</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3937,10 +3955,10 @@
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3952,10 +3970,10 @@
         <v>12</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3967,10 +3985,10 @@
         <v>12</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,10 +4006,10 @@
         <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4000,13 +4018,13 @@
         <v>1376</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -4015,19 +4033,19 @@
         <v>1376</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>41</v>
@@ -4036,13 +4054,13 @@
         <v>42029</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -4051,13 +4069,13 @@
         <v>32298</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M14" s="7">
         <v>66</v>
@@ -4066,13 +4084,13 @@
         <v>74327</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,13 +4105,13 @@
         <v>42029</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>26</v>
@@ -4102,13 +4120,13 @@
         <v>33674</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>67</v>
@@ -4117,13 +4135,13 @@
         <v>75703</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4140,13 +4158,13 @@
         <v>6613</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -4155,13 +4173,13 @@
         <v>13884</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -4170,13 +4188,13 @@
         <v>20498</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4191,13 +4209,13 @@
         <v>18201</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H17" s="7">
         <v>31</v>
@@ -4206,13 +4224,13 @@
         <v>40547</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M17" s="7">
         <v>51</v>
@@ -4221,19 +4239,19 @@
         <v>58748</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>193</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>596</v>
@@ -4242,13 +4260,13 @@
         <v>563649</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H18" s="7">
         <v>613</v>
@@ -4257,13 +4275,13 @@
         <v>722074</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M18" s="7">
         <v>1209</v>
@@ -4272,13 +4290,13 @@
         <v>1285723</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,13 +4311,13 @@
         <v>588463</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>654</v>
@@ -4308,13 +4326,13 @@
         <v>776505</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>1278</v>
@@ -4323,18 +4341,18 @@
         <v>1364968</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4353,7 +4371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D2102C-C48A-40A4-AA13-EB731C2E5BBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32FB3BFC-DF27-41AD-8F77-188CF743623E}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4370,7 +4388,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4477,13 +4495,13 @@
         <v>6040</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="H4" s="7">
         <v>45</v>
@@ -4492,13 +4510,13 @@
         <v>25478</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M4" s="7">
         <v>55</v>
@@ -4507,13 +4525,13 @@
         <v>31519</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>78</v>
+        <v>272</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4528,13 +4546,13 @@
         <v>17366</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>188</v>
+        <v>276</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="H5" s="7">
         <v>86</v>
@@ -4543,13 +4561,13 @@
         <v>45178</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="M5" s="7">
         <v>114</v>
@@ -4558,19 +4576,19 @@
         <v>62544</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>390</v>
@@ -4579,13 +4597,13 @@
         <v>264065</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="H6" s="7">
         <v>886</v>
@@ -4594,13 +4612,13 @@
         <v>483824</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="M6" s="7">
         <v>1276</v>
@@ -4609,13 +4627,13 @@
         <v>747889</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4630,13 +4648,13 @@
         <v>287472</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>1017</v>
@@ -4645,13 +4663,13 @@
         <v>554480</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>1445</v>
@@ -4660,18 +4678,18 @@
         <v>841951</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4683,13 +4701,13 @@
         <v>666</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -4698,13 +4716,13 @@
         <v>1843</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>292</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -4713,13 +4731,13 @@
         <v>2509</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4734,13 +4752,13 @@
         <v>4515</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>298</v>
+        <v>193</v>
       </c>
       <c r="H9" s="7">
         <v>21</v>
@@ -4749,13 +4767,13 @@
         <v>11052</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>248</v>
+        <v>303</v>
       </c>
       <c r="M9" s="7">
         <v>27</v>
@@ -4764,19 +4782,19 @@
         <v>15567</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>216</v>
+        <v>305</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>418</v>
@@ -4785,13 +4803,13 @@
         <v>288680</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="H10" s="7">
         <v>503</v>
@@ -4800,13 +4818,13 @@
         <v>373028</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="M10" s="7">
         <v>921</v>
@@ -4815,13 +4833,13 @@
         <v>661708</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4836,13 +4854,13 @@
         <v>293861</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>528</v>
@@ -4851,13 +4869,13 @@
         <v>385923</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>953</v>
@@ -4866,18 +4884,18 @@
         <v>679784</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4892,10 +4910,10 @@
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4907,10 +4925,10 @@
         <v>12</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4922,10 +4940,10 @@
         <v>12</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4940,13 +4958,13 @@
         <v>1817</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>150</v>
+        <v>194</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4955,13 +4973,13 @@
         <v>1081</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -4970,19 +4988,19 @@
         <v>2897</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>165</v>
@@ -4991,13 +5009,13 @@
         <v>110169</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="H14" s="7">
         <v>150</v>
@@ -5006,13 +5024,13 @@
         <v>77164</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>263</v>
+        <v>329</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M14" s="7">
         <v>315</v>
@@ -5021,13 +5039,13 @@
         <v>187334</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>221</v>
+        <v>308</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5042,13 +5060,13 @@
         <v>111986</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>152</v>
@@ -5057,13 +5075,13 @@
         <v>78245</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>320</v>
@@ -5072,13 +5090,13 @@
         <v>190231</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,13 +5113,13 @@
         <v>6707</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>333</v>
       </c>
       <c r="H16" s="7">
         <v>49</v>
@@ -5110,13 +5128,13 @@
         <v>27321</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>327</v>
+        <v>82</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>328</v>
+        <v>13</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -5125,13 +5143,13 @@
         <v>34028</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5146,13 +5164,13 @@
         <v>23698</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>150</v>
+        <v>338</v>
       </c>
       <c r="H17" s="7">
         <v>109</v>
@@ -5161,13 +5179,13 @@
         <v>57310</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="M17" s="7">
         <v>146</v>
@@ -5176,19 +5194,19 @@
         <v>81008</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>337</v>
+        <v>251</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>973</v>
@@ -5197,13 +5215,13 @@
         <v>662913</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>206</v>
+        <v>345</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="H18" s="7">
         <v>1539</v>
@@ -5212,13 +5230,13 @@
         <v>934017</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="M18" s="7">
         <v>2512</v>
@@ -5227,13 +5245,13 @@
         <v>1596930</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5248,13 +5266,13 @@
         <v>693318</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>1697</v>
@@ -5263,13 +5281,13 @@
         <v>1018648</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>2718</v>
@@ -5278,18 +5296,18 @@
         <v>1711966</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5406-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5406-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D70B46B4-9593-44F3-9892-C906BFB8E6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1EECB4E-CF17-4F48-9D4D-E5006DD5E441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{38DADCA4-CEB4-4D28-9E7D-C7F33ADACA08}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FB7EC7A9-5A33-46A0-AAC2-2F791F91166F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="343">
   <si>
     <t>Población según si es capaz de tomar medicación en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -80,969 +80,945 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>Con alguna ayuda</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de tomar medicación en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de tomar medicación en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de tomar medicación en 2023 (Tasa respuesta: 31,22%)</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
     <t>1,68%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>Con alguna ayuda</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de tomar medicación en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de tomar medicación en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de tomar medicación en 2023 (Tasa respuesta: 31,22%)</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
     <t>1,37%</t>
   </si>
   <si>
@@ -1056,9 +1032,6 @@
   </si>
   <si>
     <t>4,63%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
   </si>
   <si>
     <t>3,9%</t>
@@ -1506,7 +1479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D17537-164F-4F33-8C8A-93446A3F3D24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D8E568-E635-4ED5-8DE6-53782FC65858}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1744,7 +1717,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>547938</v>
+        <v>547939</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1795,7 +1768,7 @@
         <v>574</v>
       </c>
       <c r="I7" s="7">
-        <v>587749</v>
+        <v>587750</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2302,10 +2275,10 @@
         <v>83</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -2314,13 +2287,13 @@
         <v>27043</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M17" s="7">
         <v>55</v>
@@ -2329,13 +2302,13 @@
         <v>55233</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2350,13 +2323,13 @@
         <v>470700</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H18" s="7">
         <v>622</v>
@@ -2365,13 +2338,13 @@
         <v>633852</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M18" s="7">
         <v>1111</v>
@@ -2380,13 +2353,13 @@
         <v>1104552</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,7 +2415,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2461,7 +2434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075B3B7B-30D8-4706-9E2E-A260AA27C27E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F32FC6-2582-4874-A059-6CB57CA49E73}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2478,7 +2451,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2585,13 +2558,13 @@
         <v>15847</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -2600,13 +2573,13 @@
         <v>28897</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M4" s="7">
         <v>40</v>
@@ -2615,13 +2588,13 @@
         <v>44743</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,13 +2609,13 @@
         <v>31708</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H5" s="7">
         <v>43</v>
@@ -2651,13 +2624,13 @@
         <v>46835</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M5" s="7">
         <v>70</v>
@@ -2666,13 +2639,13 @@
         <v>78543</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2660,13 @@
         <v>366843</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H6" s="7">
         <v>527</v>
@@ -2702,13 +2675,13 @@
         <v>558814</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M6" s="7">
         <v>864</v>
@@ -2717,13 +2690,13 @@
         <v>925656</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,13 +2764,13 @@
         <v>992</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2806,13 +2779,13 @@
         <v>2424</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -2821,13 +2794,13 @@
         <v>3416</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,13 +2815,13 @@
         <v>5450</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -2857,13 +2830,13 @@
         <v>1100</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -2872,13 +2845,13 @@
         <v>6550</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,13 +2866,13 @@
         <v>112222</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H10" s="7">
         <v>74</v>
@@ -2908,13 +2881,13 @@
         <v>79550</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="M10" s="7">
         <v>174</v>
@@ -2923,13 +2896,13 @@
         <v>191773</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3003,7 +2976,7 @@
         <v>67</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3018,7 +2991,7 @@
         <v>67</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3033,7 +3006,7 @@
         <v>67</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3054,7 +3027,7 @@
         <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3063,13 +3036,13 @@
         <v>1100</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -3078,13 +3051,13 @@
         <v>1100</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3102,7 +3075,7 @@
         <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>40</v>
@@ -3114,10 +3087,10 @@
         <v>21146</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>71</v>
@@ -3129,10 +3102,10 @@
         <v>47721</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>71</v>
@@ -3203,13 +3176,13 @@
         <v>16839</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -3218,13 +3191,13 @@
         <v>31321</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M16" s="7">
         <v>43</v>
@@ -3233,13 +3206,13 @@
         <v>48159</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,13 +3227,13 @@
         <v>37159</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -3269,13 +3242,13 @@
         <v>49034</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M17" s="7">
         <v>76</v>
@@ -3284,13 +3257,13 @@
         <v>86192</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>68</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3305,13 +3278,13 @@
         <v>505640</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H18" s="7">
         <v>618</v>
@@ -3320,13 +3293,13 @@
         <v>659511</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M18" s="7">
         <v>1076</v>
@@ -3335,13 +3308,13 @@
         <v>1165150</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,7 +3370,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3416,7 +3389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED5C535-DE3B-4D7F-B6E2-98689128217C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349C5C43-4D1B-47C0-B3FD-CD28451717C6}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3433,7 +3406,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3540,13 +3513,13 @@
         <v>5777</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -3555,13 +3528,13 @@
         <v>11791</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -3570,13 +3543,13 @@
         <v>17568</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,13 +3564,13 @@
         <v>18201</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H5" s="7">
         <v>27</v>
@@ -3606,13 +3579,13 @@
         <v>34500</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>198</v>
+        <v>24</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M5" s="7">
         <v>47</v>
@@ -3621,13 +3594,13 @@
         <v>52701</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,16 +3612,16 @@
         <v>359</v>
       </c>
       <c r="D6" s="7">
-        <v>329923</v>
+        <v>329924</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H6" s="7">
         <v>435</v>
@@ -3657,13 +3630,13 @@
         <v>508466</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M6" s="7">
         <v>794</v>
@@ -3672,13 +3645,13 @@
         <v>838389</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>210</v>
+        <v>126</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,7 +3663,7 @@
         <v>386</v>
       </c>
       <c r="D7" s="7">
-        <v>353901</v>
+        <v>353902</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -3746,13 +3719,13 @@
         <v>836</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3761,13 +3734,13 @@
         <v>2093</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -3776,13 +3749,13 @@
         <v>2930</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,7 +3776,7 @@
         <v>67</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -3812,13 +3785,13 @@
         <v>4671</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>216</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>29</v>
+        <v>217</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -3827,13 +3800,13 @@
         <v>4671</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>140</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,10 +3821,10 @@
         <v>191696</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>71</v>
@@ -3863,13 +3836,13 @@
         <v>181310</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M10" s="7">
         <v>349</v>
@@ -3878,13 +3851,13 @@
         <v>373006</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3958,7 +3931,7 @@
         <v>67</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3973,7 +3946,7 @@
         <v>67</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3988,7 +3961,7 @@
         <v>67</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4009,7 +3982,7 @@
         <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4018,13 +3991,13 @@
         <v>1376</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -4033,13 +4006,13 @@
         <v>1376</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4057,7 +4030,7 @@
         <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>40</v>
@@ -4069,10 +4042,10 @@
         <v>32298</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>71</v>
@@ -4084,10 +4057,10 @@
         <v>74327</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>71</v>
@@ -4158,13 +4131,13 @@
         <v>6613</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -4173,13 +4146,13 @@
         <v>13884</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -4188,13 +4161,13 @@
         <v>20498</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>247</v>
+        <v>50</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4209,13 +4182,13 @@
         <v>18201</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>251</v>
+        <v>150</v>
       </c>
       <c r="H17" s="7">
         <v>31</v>
@@ -4224,13 +4197,13 @@
         <v>40547</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M17" s="7">
         <v>51</v>
@@ -4239,13 +4212,13 @@
         <v>58748</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>193</v>
+        <v>135</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4260,13 +4233,13 @@
         <v>563649</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H18" s="7">
         <v>613</v>
@@ -4275,13 +4248,13 @@
         <v>722074</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>262</v>
+        <v>72</v>
       </c>
       <c r="M18" s="7">
         <v>1209</v>
@@ -4290,13 +4263,13 @@
         <v>1285723</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4352,7 +4325,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4371,7 +4344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32FB3BFC-DF27-41AD-8F77-188CF743623E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FAD403-37FA-4FA1-8EDB-D12DEE5C4BC9}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4388,7 +4361,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4495,13 +4468,13 @@
         <v>6040</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H4" s="7">
         <v>45</v>
@@ -4510,13 +4483,13 @@
         <v>25478</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M4" s="7">
         <v>55</v>
@@ -4525,13 +4498,13 @@
         <v>31519</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4546,13 +4519,13 @@
         <v>17366</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>276</v>
+        <v>16</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="H5" s="7">
         <v>86</v>
@@ -4561,13 +4534,13 @@
         <v>45178</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="M5" s="7">
         <v>114</v>
@@ -4576,13 +4549,13 @@
         <v>62544</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,13 +4570,13 @@
         <v>264065</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="H6" s="7">
         <v>886</v>
@@ -4612,13 +4585,13 @@
         <v>483824</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>288</v>
+        <v>120</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="M6" s="7">
         <v>1276</v>
@@ -4627,13 +4600,13 @@
         <v>747889</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,13 +4674,13 @@
         <v>666</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -4716,13 +4689,13 @@
         <v>1843</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>288</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -4731,13 +4704,13 @@
         <v>2509</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4752,13 +4725,13 @@
         <v>4515</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>193</v>
+        <v>294</v>
       </c>
       <c r="H9" s="7">
         <v>21</v>
@@ -4767,13 +4740,13 @@
         <v>11052</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>303</v>
+        <v>112</v>
       </c>
       <c r="M9" s="7">
         <v>27</v>
@@ -4782,13 +4755,13 @@
         <v>15567</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4803,13 +4776,13 @@
         <v>288680</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="H10" s="7">
         <v>503</v>
@@ -4818,13 +4791,13 @@
         <v>373028</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="M10" s="7">
         <v>921</v>
@@ -4833,13 +4806,13 @@
         <v>661708</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>315</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,7 +4886,7 @@
         <v>67</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4928,7 +4901,7 @@
         <v>67</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4943,7 +4916,7 @@
         <v>67</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4958,13 +4931,13 @@
         <v>1817</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4973,13 +4946,13 @@
         <v>1081</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>321</v>
+        <v>211</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -4988,13 +4961,13 @@
         <v>2897</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5009,13 +4982,13 @@
         <v>110169</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="H14" s="7">
         <v>150</v>
@@ -5024,10 +4997,10 @@
         <v>77164</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>71</v>
@@ -5039,13 +5012,13 @@
         <v>187334</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,13 +5086,13 @@
         <v>6707</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H16" s="7">
         <v>49</v>
@@ -5128,13 +5101,13 @@
         <v>27321</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>82</v>
+        <v>324</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>13</v>
+        <v>325</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -5146,10 +5119,10 @@
         <v>42</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5164,13 +5137,13 @@
         <v>23698</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="H17" s="7">
         <v>109</v>
@@ -5179,13 +5152,13 @@
         <v>57310</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>339</v>
+        <v>87</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="M17" s="7">
         <v>146</v>
@@ -5194,13 +5167,13 @@
         <v>81008</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>251</v>
+        <v>22</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,13 +5188,13 @@
         <v>662913</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="H18" s="7">
         <v>1539</v>
@@ -5230,13 +5203,13 @@
         <v>934017</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="M18" s="7">
         <v>2512</v>
@@ -5245,13 +5218,13 @@
         <v>1596930</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,7 +5280,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5406-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5406-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1EECB4E-CF17-4F48-9D4D-E5006DD5E441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC4A6D84-ABDA-4D89-92F5-376C8939D438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FB7EC7A9-5A33-46A0-AAC2-2F791F91166F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C0AF4BCC-5896-40AE-BC6D-58800B80A2D0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="346">
   <si>
     <t>Población según si es capaz de tomar medicación en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -80,994 +80,1003 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>Con alguna ayuda</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de tomar medicación en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de tomar medicación en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de tomar medicación en 2023 (Tasa respuesta: 31,22%)</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
     <t>1,83%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>Con alguna ayuda</t>
-  </si>
-  <si>
-    <t>6,85%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
   </si>
   <si>
     <t>4,73%</t>
   </si>
   <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de tomar medicación en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de tomar medicación en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de tomar medicación en 2023 (Tasa respuesta: 31,22%)</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
+    <t>3,79%</t>
   </si>
   <si>
     <t>95,61%</t>
   </si>
   <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
+    <t>96,71%</t>
   </si>
   <si>
     <t>91,69%</t>
   </si>
   <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
   </si>
   <si>
     <t>93,28%</t>
   </si>
   <si>
-    <t>94,71%</t>
+    <t>94,65%</t>
   </si>
 </sst>
 </file>
@@ -1479,7 +1488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D8E568-E635-4ED5-8DE6-53782FC65858}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721F3EE9-F2D4-47C5-876C-8815CAF639EF}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1690,13 +1699,13 @@
         <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>369</v>
@@ -1705,13 +1714,13 @@
         <v>345809</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>538</v>
@@ -1720,13 +1729,13 @@
         <v>547939</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>907</v>
@@ -1735,13 +1744,13 @@
         <v>893747</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1756,13 +1765,13 @@
         <v>373189</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>574</v>
@@ -1771,13 +1780,13 @@
         <v>587750</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>973</v>
@@ -1786,18 +1795,18 @@
         <v>960938</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1809,13 +1818,13 @@
         <v>1751</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -1824,13 +1833,13 @@
         <v>2055</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -1839,13 +1848,13 @@
         <v>3806</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1860,13 +1869,13 @@
         <v>2635</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -1875,13 +1884,13 @@
         <v>1124</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -1890,19 +1899,19 @@
         <v>3759</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>85</v>
@@ -1911,13 +1920,13 @@
         <v>83697</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>57</v>
@@ -1926,13 +1935,13 @@
         <v>59033</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>142</v>
@@ -1941,13 +1950,13 @@
         <v>142730</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1962,13 +1971,13 @@
         <v>88083</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>60</v>
@@ -1977,13 +1986,13 @@
         <v>62212</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>149</v>
@@ -1992,18 +2001,18 @@
         <v>150295</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2018,10 +2027,10 @@
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2033,10 +2042,10 @@
         <v>12</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2048,10 +2057,10 @@
         <v>12</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2069,10 +2078,10 @@
         <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2084,10 +2093,10 @@
         <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2099,16 +2108,16 @@
         <v>12</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>35</v>
@@ -2117,13 +2126,13 @@
         <v>41194</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
@@ -2132,13 +2141,13 @@
         <v>26881</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M14" s="7">
         <v>62</v>
@@ -2147,13 +2156,13 @@
         <v>68075</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2168,13 +2177,13 @@
         <v>41194</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>27</v>
@@ -2183,13 +2192,13 @@
         <v>26881</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>62</v>
@@ -2198,13 +2207,13 @@
         <v>68075</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2221,13 +2230,13 @@
         <v>3576</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -2239,10 +2248,10 @@
         <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -2251,13 +2260,13 @@
         <v>19523</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2272,13 +2281,13 @@
         <v>28190</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -2287,13 +2296,13 @@
         <v>27043</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M17" s="7">
         <v>55</v>
@@ -2302,19 +2311,19 @@
         <v>55233</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>489</v>
@@ -2323,13 +2332,13 @@
         <v>470700</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H18" s="7">
         <v>622</v>
@@ -2338,13 +2347,13 @@
         <v>633852</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M18" s="7">
         <v>1111</v>
@@ -2353,13 +2362,13 @@
         <v>1104552</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2374,13 +2383,13 @@
         <v>502466</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>661</v>
@@ -2389,13 +2398,13 @@
         <v>676842</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>1184</v>
@@ -2404,18 +2413,18 @@
         <v>1179308</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2434,7 +2443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F32FC6-2582-4874-A059-6CB57CA49E73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDDF06D-8BA8-452F-AB90-179128F00227}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2451,7 +2460,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2558,13 +2567,13 @@
         <v>15847</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -2573,13 +2582,13 @@
         <v>28897</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M4" s="7">
         <v>40</v>
@@ -2588,13 +2597,13 @@
         <v>44743</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2609,13 +2618,13 @@
         <v>31708</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H5" s="7">
         <v>43</v>
@@ -2624,13 +2633,13 @@
         <v>46835</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M5" s="7">
         <v>70</v>
@@ -2639,19 +2648,19 @@
         <v>78543</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>337</v>
@@ -2660,13 +2669,13 @@
         <v>366843</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H6" s="7">
         <v>527</v>
@@ -2675,13 +2684,13 @@
         <v>558814</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M6" s="7">
         <v>864</v>
@@ -2690,10 +2699,10 @@
         <v>925656</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>126</v>
@@ -2711,13 +2720,13 @@
         <v>414398</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>596</v>
@@ -2726,13 +2735,13 @@
         <v>634545</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>974</v>
@@ -2741,18 +2750,18 @@
         <v>1048942</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2770,7 +2779,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2779,13 +2788,13 @@
         <v>2424</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -2794,13 +2803,13 @@
         <v>3416</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2815,13 +2824,13 @@
         <v>5450</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -2830,13 +2839,13 @@
         <v>1100</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -2845,19 +2854,19 @@
         <v>6550</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>100</v>
@@ -2866,13 +2875,13 @@
         <v>112222</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
         <v>74</v>
@@ -2881,13 +2890,13 @@
         <v>79550</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
         <v>174</v>
@@ -2896,13 +2905,13 @@
         <v>191773</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2917,13 +2926,13 @@
         <v>118665</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>77</v>
@@ -2932,13 +2941,13 @@
         <v>83074</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>182</v>
@@ -2947,18 +2956,18 @@
         <v>201739</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2973,10 +2982,10 @@
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2988,10 +2997,10 @@
         <v>12</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3003,10 +3012,10 @@
         <v>12</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,10 +3033,10 @@
         <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3036,13 +3045,13 @@
         <v>1100</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -3051,7 +3060,7 @@
         <v>1100</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
@@ -3063,7 +3072,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>21</v>
@@ -3072,13 +3081,13 @@
         <v>26575</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>154</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
@@ -3087,13 +3096,13 @@
         <v>21146</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>155</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M14" s="7">
         <v>38</v>
@@ -3108,7 +3117,7 @@
         <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3123,13 +3132,13 @@
         <v>26575</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>18</v>
@@ -3138,13 +3147,13 @@
         <v>22246</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>39</v>
@@ -3153,13 +3162,13 @@
         <v>48821</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,10 +3188,10 @@
         <v>158</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -3191,13 +3200,13 @@
         <v>31321</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M16" s="7">
         <v>43</v>
@@ -3206,13 +3215,13 @@
         <v>48159</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3227,10 +3236,10 @@
         <v>37159</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>167</v>
+        <v>103</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>168</v>
@@ -3260,7 +3269,7 @@
         <v>169</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>172</v>
@@ -3269,7 +3278,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>458</v>
@@ -3329,13 +3338,13 @@
         <v>559637</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>691</v>
@@ -3344,13 +3353,13 @@
         <v>739865</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>1195</v>
@@ -3359,18 +3368,18 @@
         <v>1299502</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3389,7 +3398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349C5C43-4D1B-47C0-B3FD-CD28451717C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B72DFAD-8D9E-4F63-8939-002F804853A1}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3546,10 +3555,10 @@
         <v>189</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,13 +3573,13 @@
         <v>18201</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H5" s="7">
         <v>27</v>
@@ -3579,13 +3588,13 @@
         <v>34500</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M5" s="7">
         <v>47</v>
@@ -3594,19 +3603,19 @@
         <v>52701</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>359</v>
@@ -3615,13 +3624,13 @@
         <v>329924</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H6" s="7">
         <v>435</v>
@@ -3630,13 +3639,13 @@
         <v>508466</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M6" s="7">
         <v>794</v>
@@ -3645,13 +3654,13 @@
         <v>838389</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,13 +3675,13 @@
         <v>353902</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>471</v>
@@ -3681,13 +3690,13 @@
         <v>554757</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>857</v>
@@ -3696,18 +3705,18 @@
         <v>908658</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3719,13 +3728,13 @@
         <v>836</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>209</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3734,13 +3743,13 @@
         <v>2093</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -3749,13 +3758,13 @@
         <v>2930</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,10 +3782,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -3785,13 +3794,13 @@
         <v>4671</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -3800,19 +3809,19 @@
         <v>4671</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>196</v>
@@ -3821,13 +3830,13 @@
         <v>191696</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>221</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H10" s="7">
         <v>153</v>
@@ -3836,13 +3845,13 @@
         <v>181310</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M10" s="7">
         <v>349</v>
@@ -3851,13 +3860,13 @@
         <v>373006</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3872,13 +3881,13 @@
         <v>192532</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>157</v>
@@ -3887,13 +3896,13 @@
         <v>188074</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>354</v>
@@ -3902,18 +3911,18 @@
         <v>380606</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3928,10 +3937,10 @@
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3943,10 +3952,10 @@
         <v>12</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3958,10 +3967,10 @@
         <v>12</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3979,10 +3988,10 @@
         <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3991,13 +4000,13 @@
         <v>1376</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -4006,19 +4015,19 @@
         <v>1376</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>41</v>
@@ -4027,13 +4036,13 @@
         <v>42029</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -4042,13 +4051,13 @@
         <v>32298</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>236</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M14" s="7">
         <v>66</v>
@@ -4057,13 +4066,13 @@
         <v>74327</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>238</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4078,13 +4087,13 @@
         <v>42029</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>26</v>
@@ -4093,13 +4102,13 @@
         <v>33674</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>67</v>
@@ -4108,13 +4117,13 @@
         <v>75703</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4131,13 +4140,13 @@
         <v>6613</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -4146,13 +4155,13 @@
         <v>13884</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -4161,10 +4170,10 @@
         <v>20498</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>245</v>
@@ -4188,7 +4197,7 @@
         <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>31</v>
@@ -4197,13 +4206,13 @@
         <v>40547</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>51</v>
@@ -4212,19 +4221,19 @@
         <v>58748</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>135</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>596</v>
@@ -4233,13 +4242,13 @@
         <v>563649</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H18" s="7">
         <v>613</v>
@@ -4248,13 +4257,13 @@
         <v>722074</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>72</v>
+        <v>260</v>
       </c>
       <c r="M18" s="7">
         <v>1209</v>
@@ -4263,13 +4272,13 @@
         <v>1285723</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,13 +4293,13 @@
         <v>588463</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>654</v>
@@ -4299,13 +4308,13 @@
         <v>776505</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>1278</v>
@@ -4314,18 +4323,18 @@
         <v>1364968</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -4344,7 +4353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FAD403-37FA-4FA1-8EDB-D12DEE5C4BC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4107155B-BE61-4672-A098-DF53307AB625}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4361,7 +4370,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4468,13 +4477,13 @@
         <v>6040</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="H4" s="7">
         <v>45</v>
@@ -4483,13 +4492,13 @@
         <v>25478</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M4" s="7">
         <v>55</v>
@@ -4498,13 +4507,13 @@
         <v>31519</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4519,13 +4528,13 @@
         <v>17366</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="H5" s="7">
         <v>86</v>
@@ -4534,13 +4543,13 @@
         <v>45178</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="M5" s="7">
         <v>114</v>
@@ -4549,19 +4558,19 @@
         <v>62544</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>390</v>
@@ -4570,13 +4579,13 @@
         <v>264065</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H6" s="7">
         <v>886</v>
@@ -4585,13 +4594,13 @@
         <v>483824</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>120</v>
+        <v>283</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="M6" s="7">
         <v>1276</v>
@@ -4600,13 +4609,13 @@
         <v>747889</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4621,13 +4630,13 @@
         <v>287472</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>1017</v>
@@ -4636,13 +4645,13 @@
         <v>554480</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>1445</v>
@@ -4651,18 +4660,18 @@
         <v>841951</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4674,13 +4683,13 @@
         <v>666</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -4689,13 +4698,13 @@
         <v>1843</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -4704,13 +4713,13 @@
         <v>2509</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4725,13 +4734,13 @@
         <v>4515</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H9" s="7">
         <v>21</v>
@@ -4740,13 +4749,13 @@
         <v>11052</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>214</v>
+        <v>80</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>112</v>
+        <v>248</v>
       </c>
       <c r="M9" s="7">
         <v>27</v>
@@ -4755,19 +4764,19 @@
         <v>15567</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>297</v>
+        <v>216</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>418</v>
@@ -4776,13 +4785,13 @@
         <v>288680</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H10" s="7">
         <v>503</v>
@@ -4791,13 +4800,13 @@
         <v>373028</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M10" s="7">
         <v>921</v>
@@ -4806,13 +4815,13 @@
         <v>661708</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>62</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4827,13 +4836,13 @@
         <v>293861</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>528</v>
@@ -4842,13 +4851,13 @@
         <v>385923</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>953</v>
@@ -4857,18 +4866,18 @@
         <v>679784</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4883,10 +4892,10 @@
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4898,10 +4907,10 @@
         <v>12</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4913,10 +4922,10 @@
         <v>12</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4931,13 +4940,13 @@
         <v>1817</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4946,13 +4955,13 @@
         <v>1081</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>211</v>
+        <v>316</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -4961,19 +4970,19 @@
         <v>2897</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>165</v>
@@ -4982,13 +4991,13 @@
         <v>110169</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="H14" s="7">
         <v>150</v>
@@ -4997,13 +5006,13 @@
         <v>77164</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>319</v>
+        <v>263</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M14" s="7">
         <v>315</v>
@@ -5012,13 +5021,13 @@
         <v>187334</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>221</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5033,13 +5042,13 @@
         <v>111986</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>152</v>
@@ -5048,13 +5057,13 @@
         <v>78245</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>320</v>
@@ -5063,13 +5072,13 @@
         <v>190231</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5086,13 +5095,13 @@
         <v>6707</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>323</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7">
         <v>49</v>
@@ -5101,13 +5110,13 @@
         <v>27321</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -5116,13 +5125,13 @@
         <v>34028</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5137,13 +5146,13 @@
         <v>23698</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>330</v>
+        <v>150</v>
       </c>
       <c r="H17" s="7">
         <v>109</v>
@@ -5152,13 +5161,13 @@
         <v>57310</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>87</v>
+        <v>334</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M17" s="7">
         <v>146</v>
@@ -5167,10 +5176,10 @@
         <v>81008</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>22</v>
+        <v>337</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>334</v>
@@ -5179,7 +5188,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>973</v>
@@ -5188,13 +5197,13 @@
         <v>662913</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>336</v>
+        <v>206</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="H18" s="7">
         <v>1539</v>
@@ -5203,13 +5212,13 @@
         <v>934017</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M18" s="7">
         <v>2512</v>
@@ -5218,13 +5227,13 @@
         <v>1596930</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5239,13 +5248,13 @@
         <v>693318</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>1697</v>
@@ -5254,13 +5263,13 @@
         <v>1018648</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>2718</v>
@@ -5269,18 +5278,18 @@
         <v>1711966</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5406-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5406-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC4A6D84-ABDA-4D89-92F5-376C8939D438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67E4C610-8D73-48E8-9F98-E0216DCF874D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C0AF4BCC-5896-40AE-BC6D-58800B80A2D0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BCA8A3C0-71F7-426A-AF97-3C6A2C8E86B3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="350">
   <si>
     <t>Población según si es capaz de tomar medicación en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -836,247 +836,259 @@
     <t>Población según si es capaz de tomar medicación en 2023 (Tasa respuesta: 31,22%)</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
   </si>
   <si>
     <t>6,12%</t>
   </si>
   <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
   </si>
   <si>
     <t>0,23%</t>
   </si>
   <si>
-    <t>1,16%</t>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
   </si>
   <si>
     <t>96,66%</t>
   </si>
   <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
   </si>
 </sst>
 </file>
@@ -1488,7 +1500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721F3EE9-F2D4-47C5-876C-8815CAF639EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407497A5-827E-43EA-9B25-D55CC53790BA}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1726,7 +1738,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>547939</v>
+        <v>547938</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>33</v>
@@ -1777,7 +1789,7 @@
         <v>574</v>
       </c>
       <c r="I7" s="7">
-        <v>587750</v>
+        <v>587749</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>39</v>
@@ -2443,7 +2455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDDF06D-8BA8-452F-AB90-179128F00227}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EDA2716-C6DF-42BE-9442-DAA45F3AA62A}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3398,7 +3410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B72DFAD-8D9E-4F63-8939-002F804853A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D1D2D0-9756-44B0-9FAC-FC4BF6F80430}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3621,7 +3633,7 @@
         <v>359</v>
       </c>
       <c r="D6" s="7">
-        <v>329924</v>
+        <v>329923</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>198</v>
@@ -3672,7 +3684,7 @@
         <v>386</v>
       </c>
       <c r="D7" s="7">
-        <v>353902</v>
+        <v>353901</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>39</v>
@@ -4353,7 +4365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4107155B-BE61-4672-A098-DF53307AB625}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0386047A-B415-4F7C-96CF-05C0F4A3BD44}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4474,7 +4486,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>6040</v>
+        <v>5798</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>265</v>
@@ -4483,37 +4495,37 @@
         <v>266</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="H4" s="7">
         <v>45</v>
       </c>
       <c r="I4" s="7">
-        <v>25478</v>
+        <v>23073</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>134</v>
+        <v>268</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M4" s="7">
         <v>55</v>
       </c>
       <c r="N4" s="7">
-        <v>31519</v>
+        <v>28871</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>78</v>
+        <v>271</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4525,46 +4537,46 @@
         <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>17366</v>
+        <v>16473</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H5" s="7">
         <v>86</v>
       </c>
       <c r="I5" s="7">
-        <v>45178</v>
+        <v>41332</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M5" s="7">
         <v>114</v>
       </c>
       <c r="N5" s="7">
-        <v>62544</v>
+        <v>57806</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4576,46 +4588,46 @@
         <v>390</v>
       </c>
       <c r="D6" s="7">
-        <v>264065</v>
+        <v>246973</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="H6" s="7">
         <v>886</v>
       </c>
       <c r="I6" s="7">
-        <v>483824</v>
+        <v>435384</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M6" s="7">
         <v>1276</v>
       </c>
       <c r="N6" s="7">
-        <v>747889</v>
+        <v>682357</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4627,7 +4639,7 @@
         <v>428</v>
       </c>
       <c r="D7" s="7">
-        <v>287472</v>
+        <v>269244</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>39</v>
@@ -4642,7 +4654,7 @@
         <v>1017</v>
       </c>
       <c r="I7" s="7">
-        <v>554480</v>
+        <v>499789</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>39</v>
@@ -4657,7 +4669,7 @@
         <v>1445</v>
       </c>
       <c r="N7" s="7">
-        <v>841951</v>
+        <v>769033</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>39</v>
@@ -4680,40 +4692,40 @@
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>666</v>
+        <v>632</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
       </c>
       <c r="I8" s="7">
-        <v>1843</v>
+        <v>1649</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
       </c>
       <c r="N8" s="7">
-        <v>2509</v>
+        <v>2281</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>293</v>
+        <v>217</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>294</v>
@@ -4731,7 +4743,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="7">
-        <v>4515</v>
+        <v>4124</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>296</v>
@@ -4746,31 +4758,31 @@
         <v>21</v>
       </c>
       <c r="I9" s="7">
-        <v>11052</v>
+        <v>9958</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>299</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="M9" s="7">
         <v>27</v>
       </c>
       <c r="N9" s="7">
-        <v>15567</v>
+        <v>14082</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="Q9" s="7" t="s">
-        <v>301</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,46 +4794,46 @@
         <v>418</v>
       </c>
       <c r="D10" s="7">
-        <v>288680</v>
+        <v>267881</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="H10" s="7">
         <v>503</v>
       </c>
       <c r="I10" s="7">
-        <v>373028</v>
+        <v>443679</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M10" s="7">
         <v>921</v>
       </c>
       <c r="N10" s="7">
-        <v>661708</v>
+        <v>711560</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4833,7 +4845,7 @@
         <v>425</v>
       </c>
       <c r="D11" s="7">
-        <v>293861</v>
+        <v>272637</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>39</v>
@@ -4848,7 +4860,7 @@
         <v>528</v>
       </c>
       <c r="I11" s="7">
-        <v>385923</v>
+        <v>455286</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>39</v>
@@ -4863,7 +4875,7 @@
         <v>953</v>
       </c>
       <c r="N11" s="7">
-        <v>679784</v>
+        <v>727923</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>39</v>
@@ -4895,7 +4907,7 @@
         <v>66</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4910,7 +4922,7 @@
         <v>66</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4925,7 +4937,7 @@
         <v>66</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,22 +4949,22 @@
         <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>1817</v>
+        <v>1648</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>1081</v>
+        <v>981</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>315</v>
@@ -4967,7 +4979,7 @@
         <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>2897</v>
+        <v>2629</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>317</v>
@@ -4988,7 +5000,7 @@
         <v>165</v>
       </c>
       <c r="D14" s="7">
-        <v>110169</v>
+        <v>103338</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>320</v>
@@ -5003,13 +5015,13 @@
         <v>150</v>
       </c>
       <c r="I14" s="7">
-        <v>77164</v>
+        <v>70344</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>323</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>263</v>
+        <v>324</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>70</v>
@@ -5018,16 +5030,16 @@
         <v>315</v>
       </c>
       <c r="N14" s="7">
-        <v>187334</v>
+        <v>173682</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>221</v>
+        <v>326</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,7 +5051,7 @@
         <v>168</v>
       </c>
       <c r="D15" s="7">
-        <v>111986</v>
+        <v>104986</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>39</v>
@@ -5054,7 +5066,7 @@
         <v>152</v>
       </c>
       <c r="I15" s="7">
-        <v>78245</v>
+        <v>71325</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>39</v>
@@ -5069,7 +5081,7 @@
         <v>320</v>
       </c>
       <c r="N15" s="7">
-        <v>190231</v>
+        <v>176311</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>39</v>
@@ -5092,46 +5104,46 @@
         <v>11</v>
       </c>
       <c r="D16" s="7">
-        <v>6707</v>
+        <v>6431</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>330</v>
       </c>
       <c r="H16" s="7">
         <v>49</v>
       </c>
       <c r="I16" s="7">
-        <v>27321</v>
+        <v>24721</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>328</v>
+        <v>216</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
       </c>
       <c r="N16" s="7">
-        <v>34028</v>
+        <v>31152</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>41</v>
+        <v>333</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>330</v>
+        <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5143,46 +5155,46 @@
         <v>37</v>
       </c>
       <c r="D17" s="7">
-        <v>23698</v>
+        <v>22245</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>150</v>
+        <v>337</v>
       </c>
       <c r="H17" s="7">
         <v>109</v>
       </c>
       <c r="I17" s="7">
-        <v>57310</v>
+        <v>52272</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>334</v>
+        <v>128</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>336</v>
+        <v>68</v>
       </c>
       <c r="M17" s="7">
         <v>146</v>
       </c>
       <c r="N17" s="7">
-        <v>81008</v>
+        <v>74516</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5194,46 +5206,46 @@
         <v>973</v>
       </c>
       <c r="D18" s="7">
-        <v>662913</v>
+        <v>618191</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>206</v>
+        <v>343</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="H18" s="7">
         <v>1539</v>
       </c>
       <c r="I18" s="7">
-        <v>934017</v>
+        <v>949407</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="M18" s="7">
         <v>2512</v>
       </c>
       <c r="N18" s="7">
-        <v>1596930</v>
+        <v>1567598</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>344</v>
+        <v>89</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>204</v>
+        <v>348</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5245,7 +5257,7 @@
         <v>1021</v>
       </c>
       <c r="D19" s="7">
-        <v>693318</v>
+        <v>646866</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>39</v>
@@ -5260,7 +5272,7 @@
         <v>1697</v>
       </c>
       <c r="I19" s="7">
-        <v>1018648</v>
+        <v>1026400</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>39</v>
@@ -5275,7 +5287,7 @@
         <v>2718</v>
       </c>
       <c r="N19" s="7">
-        <v>1711966</v>
+        <v>1673266</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>39</v>
